--- a/TestCases_BugReports/BugReport_Reem.xlsx
+++ b/TestCases_BugReports/BugReport_Reem.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\-Dell-\Downloads\TC&amp;BugReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FromJuly2022\Vodafone\ReemKhalaf\TestCases_BugReports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -246,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -310,11 +310,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -337,6 +346,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,13 +421,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>11004</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>3860800</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>3314700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -716,17 +727,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AB8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.54296875" customWidth="1"/>
+    <col min="1" max="1" width="33.1796875" customWidth="1"/>
     <col min="2" max="2" width="35.6328125" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" customWidth="1"/>
     <col min="4" max="4" width="44.54296875" customWidth="1"/>
     <col min="5" max="5" width="30.81640625" customWidth="1"/>
     <col min="6" max="6" width="32.453125" customWidth="1"/>
@@ -737,7 +748,7 @@
     <col min="13" max="13" width="55.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -794,7 +805,7 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="148" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" ht="148" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
@@ -835,51 +846,94 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="7" t="s">
+    <row r="5" spans="1:28" s="6" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="8" customFormat="1" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="8" t="s">
+    <row r="6" spans="1:28" s="8" customFormat="1" ht="261.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N6" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
